--- a/Data/g19.5a.xlsx
+++ b/Data/g19.5a.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,11 @@
           <t>Valor</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Colocação</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -398,6 +403,11 @@
       <c r="D2">
         <v>35.77</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1º</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -418,6 +428,11 @@
       <c r="D3">
         <v>35.32</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2º</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -438,6 +453,11 @@
       <c r="D4">
         <v>32.17</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3º</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -458,6 +478,11 @@
       <c r="D5">
         <v>29.78</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4º</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,6 +503,11 @@
       <c r="D6">
         <v>28.95</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5º</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -498,6 +528,11 @@
       <c r="D7">
         <v>28.72</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6º</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -517,6 +552,11 @@
       </c>
       <c r="D8">
         <v>28.3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7º</t>
+        </is>
       </c>
     </row>
     <row r="9">
